--- a/271025_Results_Med/output/m3/27102025_mod3_by_gender.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_gender.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F165"/>
+  <dimension ref="A1:F174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4307,16 +4307,16 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>50 (35.0%)</t>
+          <t>50 (32.9%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>89 (57.4%)</t>
+          <t>89 (48.1%)</t>
         </is>
       </c>
       <c r="F132">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="133">
@@ -4337,16 +4337,16 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>9 (6.3%)</t>
+          <t>9 (5.9%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="F133">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="134">
@@ -4362,21 +4362,21 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>65 (45.5%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>41 (26.5%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="F134">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="135">
@@ -4392,21 +4392,21 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>65 (42.8%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>41 (22.2%)</t>
         </is>
       </c>
       <c r="F135">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="136">
@@ -4422,81 +4422,81 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>17 (11.9%)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>20 (12.9%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="F136">
-        <v>0.0007</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>2 (3.0%)</t>
+          <t>7 (4.6%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>24 (13.0%)</t>
         </is>
       </c>
       <c r="F137">
-        <v>0.08799999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>6 (9.1%)</t>
+          <t>17 (11.2%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>20 (10.8%)</t>
         </is>
       </c>
       <c r="F138">
-        <v>0.08799999999999999</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="139">
@@ -4512,21 +4512,21 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>45 (68.2%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>70 (82.4%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F139">
-        <v>0.08799999999999999</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="140">
@@ -4542,697 +4542,980 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>13 (19.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>9 (10.6%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F140">
-        <v>0.08799999999999999</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>3 (2.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F141">
-        <v>0.8934</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>110 (97.3%)</t>
+          <t>45 (23.9%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>83 (97.6%)</t>
+          <t>70 (33.3%)</t>
         </is>
       </c>
       <c r="F142">
-        <v>0.8934</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>35 (23.6%)</t>
+          <t>84 (44.7%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>47 (28.1%)</t>
+          <t>72 (34.3%)</t>
         </is>
       </c>
       <c r="F143">
-        <v>0.1395</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>34 (18.1%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>5 (3.0%)</t>
+          <t>47 (22.4%)</t>
         </is>
       </c>
       <c r="F144">
-        <v>0.1395</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10 (6.8%)</t>
+          <t>13 (6.9%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>14 (8.4%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F145">
-        <v>0.1395</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>4 (2.7%)</t>
+          <t>35 (18.6%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>12 (7.2%)</t>
+          <t>62 (29.5%)</t>
         </is>
       </c>
       <c r="F146">
-        <v>0.1395</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>97 (65.5%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>89 (53.3%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F147">
-        <v>0.1395</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>15 (8.8%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>18 (8.9%)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F148">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>27 (15.9%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>18 (8.9%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F149">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>20 (11.8%)</t>
+          <t>110 (58.5%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>31 (15.3%)</t>
+          <t>83 (39.5%)</t>
         </is>
       </c>
       <c r="F150">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>39 (22.9%)</t>
+          <t>22 (11.7%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>34 (16.7%)</t>
+          <t>34 (16.2%)</t>
         </is>
       </c>
       <c r="F151">
-        <v>0.1337</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>61 (35.9%)</t>
+          <t>35 (18.7%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>92 (45.3%)</t>
+          <t>47 (22.4%)</t>
         </is>
       </c>
       <c r="F152">
-        <v>0.1337</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>8 (4.7%)</t>
+          <t>41 (21.9%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>10 (4.9%)</t>
+          <t>48 (22.9%)</t>
         </is>
       </c>
       <c r="F153">
-        <v>0.1337</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (6.7%)</t>
         </is>
       </c>
       <c r="F154">
-        <v>0.8111</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F155">
-        <v>0.5371</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>97 (51.9%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>89 (42.4%)</t>
         </is>
       </c>
       <c r="F156">
-        <v>0.8754999999999999</v>
+        <v>0.1988</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (8.0%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F157">
-        <v>0.5627</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>27 (14.4%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F158">
-        <v>0.5956</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>20 (10.6%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>31 (14.8%)</t>
         </is>
       </c>
       <c r="F159">
-        <v>0.0302</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>57 (30.3%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>41 (19.5%)</t>
         </is>
       </c>
       <c r="F160">
-        <v>0.1461</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>61 (32.4%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>92 (43.8%)</t>
         </is>
       </c>
       <c r="F161">
-        <v>0.2108</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (4.8%)</t>
         </is>
       </c>
       <c r="F162">
-        <v>0.4179</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F163">
+        <v>0.2973</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F164">
-        <v>0.3467</v>
+        <v>0.8855</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F165">
+        <v>0.4018</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>0.3085</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>0.2498</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>0.0005999999999999999</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>0.0013</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>0.2845</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>0.7138</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>0.3467</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B165" t="inlineStr">
+      <c r="B174" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>3.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="E174" t="inlineStr">
         <is>
           <t>4.0 (3.0–4.0)</t>
         </is>
       </c>
-      <c r="F165">
+      <c r="F174">
         <v>0.0246</v>
       </c>
     </row>

--- a/271025_Results_Med/output/m3/27102025_mod3_by_gender.xlsx
+++ b/271025_Results_Med/output/m3/27102025_mod3_by_gender.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F174"/>
+  <dimension ref="A1:F176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -407,7 +407,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4 (3.9%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -416,7 +416,7 @@
         </is>
       </c>
       <c r="F2">
-        <v>0.09760000000000001</v>
+        <v>0.2967</v>
       </c>
     </row>
     <row r="3">
@@ -437,16 +437,16 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8 (7.8%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>8 (7.0%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="F3">
-        <v>0.09760000000000001</v>
+        <v>0.2967</v>
       </c>
     </row>
     <row r="4">
@@ -467,76 +467,76 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>90 (88.2%)</t>
+          <t>12 (6.4%)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>106 (93.0%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F4">
-        <v>0.09760000000000001</v>
+        <v>0.2967</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>90 (47.9%)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>106 (50.5%)</t>
         </is>
       </c>
       <c r="F5">
-        <v>0.0688</v>
+        <v>0.2967</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>p25_razones_agregadas</t>
+          <t>p24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Razones agregadas de elección del modo de transporte</t>
+          <t>Nivel de satisfacción con el modo principal de transporte</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>74 (39.4%)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>85 (40.5%)</t>
         </is>
       </c>
       <c r="F6">
-        <v>0.0688</v>
+        <v>0.2967</v>
       </c>
     </row>
     <row r="7">
@@ -552,17 +552,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27 (14.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22 (10.5%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F7">
@@ -582,17 +582,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
+          <t>Condiciones de salud propias o de un familiar, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F8">
@@ -612,17 +612,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>9 (4.8%)</t>
+          <t>27 (14.4%)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>22 (10.5%)</t>
         </is>
       </c>
       <c r="F9">
@@ -642,7 +642,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -672,12 +672,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -702,17 +702,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F12">
@@ -732,7 +732,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La comodidad (confort)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -742,7 +742,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F13">
@@ -762,17 +762,17 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F14">
@@ -792,17 +792,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F15">
@@ -822,7 +822,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Otro</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -832,7 +832,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F16">
@@ -852,17 +852,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>El tiempo de viaje</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>11 (5.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>19 (9.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F17">
@@ -882,17 +882,17 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>El costo (sus posibilidades económicas o capacidad adquisitiva), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8 (3.8%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F18">
@@ -912,17 +912,17 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>11 (5.9%)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>19 (9.0%)</t>
         </is>
       </c>
       <c r="F19">
@@ -942,7 +942,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La comodidad (confort)</t>
+          <t>El tiempo de viaje, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -952,7 +952,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="F20">
@@ -972,17 +972,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La distancia que debe recorrer</t>
+          <t>El tiempo de viaje, La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F21">
@@ -1002,17 +1002,17 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, La percepción de seguridad</t>
+          <t>El tiempo de viaje, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F22">
@@ -1032,17 +1032,17 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Otro</t>
+          <t>El tiempo de viaje, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F23">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
+          <t>El tiempo de viaje, La percepción de seguridad</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1092,17 +1092,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje</t>
+          <t>El tiempo de viaje, Otro</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F25">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
+          <t>El tiempo de viaje, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1152,17 +1152,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>La autonomía o control sobre el viaje, Otro</t>
+          <t>La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F27">
@@ -1182,17 +1182,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>La comodidad (confort)</t>
+          <t>La autonomía o control sobre el viaje, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>29 (15.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32 (15.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F28">
@@ -1212,17 +1212,17 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
+          <t>La autonomía o control sobre el viaje, Otro</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F29">
@@ -1242,17 +1242,17 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La comodidad (confort)</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>29 (15.4%)</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>32 (15.2%)</t>
         </is>
       </c>
       <c r="F30">
@@ -1272,17 +1272,17 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>La comodidad (confort), El tiempo de viaje</t>
+          <t>La comodidad (confort), Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>14 (7.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F31">
@@ -1302,17 +1302,17 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
+          <t>La comodidad (confort), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F32">
@@ -1332,17 +1332,17 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La distancia que debe recorrer</t>
+          <t>La comodidad (confort), El tiempo de viaje</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>14 (7.4%)</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10 (4.8%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F33">
@@ -1362,17 +1362,17 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>La comodidad (confort), La percepción de seguridad</t>
+          <t>La comodidad (confort), La autonomía o control sobre el viaje</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>7 (3.3%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F34">
@@ -1392,17 +1392,17 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Otro</t>
+          <t>La comodidad (confort), La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (4.8%)</t>
         </is>
       </c>
       <c r="F35">
@@ -1422,17 +1422,17 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
+          <t>La comodidad (confort), La percepción de seguridad</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="F36">
@@ -1452,17 +1452,17 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>La comodidad (confort), Otro</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F37">
@@ -1482,17 +1482,17 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer</t>
+          <t>La comodidad (confort), Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F38">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
+          <t>La comodidad (confort), Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1542,17 +1542,17 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F40">
@@ -1572,17 +1572,17 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, El tiempo de viaje</t>
+          <t>La distancia que debe recorrer, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F41">
@@ -1602,17 +1602,17 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, La comodidad (confort)</t>
+          <t>La distancia que debe recorrer, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F42">
@@ -1632,17 +1632,17 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
+          <t>La distancia que debe recorrer, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F43">
@@ -1662,17 +1662,17 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>La percepción de seguridad</t>
+          <t>La distancia que debe recorrer, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F44">
@@ -1692,17 +1692,17 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
+          <t>La distancia que debe recorrer, Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F45">
@@ -1722,17 +1722,17 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>La percepción de seguridad</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F46">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, El tiempo de viaje</t>
+          <t>La percepción de seguridad, Condiciones de salud propias o de un familiar</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1762,7 +1762,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F47">
@@ -1782,17 +1782,17 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La comodidad (confort)</t>
+          <t>La percepción de seguridad, El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5 (2.4%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F48">
@@ -1812,17 +1812,17 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>La percepción de seguridad, La distancia que debe recorrer</t>
+          <t>La percepción de seguridad, El tiempo de viaje</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F49">
@@ -1842,17 +1842,17 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>La percepción de seguridad, La comodidad (confort)</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>5 (2.4%)</t>
         </is>
       </c>
       <c r="F50">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental)</t>
+          <t>La percepción de seguridad, La distancia que debe recorrer</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1882,7 +1882,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F51">
@@ -1902,17 +1902,17 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F52">
@@ -1932,7 +1932,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
+          <t>Por razones medioambientales (consciencia ambiental)</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1942,7 +1942,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F53">
@@ -1962,17 +1962,17 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
+          <t>Por razones medioambientales (consciencia ambiental), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F54">
@@ -1982,61 +1982,61 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Costo económico</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa)</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F55">
-        <v>0.7645999999999999</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>p26_agregado</t>
+          <t>p25_razones_agregadas</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Aspectos negativos principales del modo de transporte</t>
+          <t>Razones agregadas de elección del modo de transporte</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Falta de autonomía / control</t>
+          <t>Restricciones de circulación (Ejemplo: pico y placa), El costo (sus posibilidades económicas o capacidad adquisitiva)</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F56">
-        <v>0.7645999999999999</v>
+        <v>0.0688</v>
       </c>
     </row>
     <row r="57">
@@ -2052,17 +2052,17 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Impacto ambiental</t>
+          <t>Costo económico</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F57">
@@ -2082,17 +2082,17 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Incomodidad / clima</t>
+          <t>Falta de autonomía / control</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>64 (34.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>58 (27.6%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F58">
@@ -2112,17 +2112,17 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Inseguridad personal</t>
+          <t>Impacto ambiental</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>11 (5.9%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F59">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Nada le disgusta</t>
+          <t>Incomodidad / clima</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>47 (25.0%)</t>
+          <t>64 (34.0%)</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>61 (29.0%)</t>
+          <t>58 (27.6%)</t>
         </is>
       </c>
       <c r="F60">
@@ -2172,17 +2172,17 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Inseguridad personal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>11 (5.9%)</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F61">
@@ -2202,17 +2202,17 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Riesgo de accidente</t>
+          <t>Nada le disgusta</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>16 (8.5%)</t>
+          <t>47 (25.0%)</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>61 (29.0%)</t>
         </is>
       </c>
       <c r="F62">
@@ -2232,17 +2232,17 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Sin respuesta</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F63">
@@ -2262,17 +2262,17 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Tiempo de viaje / espera</t>
+          <t>Riesgo de accidente</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>33 (17.6%)</t>
+          <t>16 (8.5%)</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>45 (21.4%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F64">
@@ -2282,61 +2282,61 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Congestión de tráfico</t>
+          <t>Sin respuesta</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>35 (18.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>28 (13.3%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F65">
-        <v>0.4822</v>
+        <v>0.7645999999999999</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>p27_situaciones_multiples</t>
+          <t>p26_agregado</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Situaciones múltiples que se buscó evitar</t>
+          <t>Aspectos negativos principales del modo de transporte</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Costos altos</t>
+          <t>Tiempo de viaje / espera</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>33 (17.6%)</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>45 (21.4%)</t>
         </is>
       </c>
       <c r="F66">
-        <v>0.4822</v>
+        <v>0.7645999999999999</v>
       </c>
     </row>
     <row r="67">
@@ -2352,17 +2352,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
+          <t>Congestión de tráfico</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>35 (18.6%)</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>28 (13.3%)</t>
         </is>
       </c>
       <c r="F67">
@@ -2382,7 +2382,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
+          <t>Congestión de tráfico, Costos altos</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F68">
@@ -2412,7 +2412,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Congestión de tráfico, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2422,7 +2422,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F69">
@@ -2442,17 +2442,17 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Multitud de personas</t>
+          <t>Congestión de tráfico, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F70">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
+          <t>Congestión de tráfico, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F71">
@@ -2502,17 +2502,17 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
+          <t>Congestión de tráfico, Multitud de personas</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F72">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
+          <t>Congestión de tráfico, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F73">
@@ -2562,17 +2562,17 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Congestión de tráfico, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10 (5.3%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>8 (3.8%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F74">
@@ -2592,12 +2592,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Costos altos, Congestión de tráfico</t>
+          <t>Congestión de tráfico, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -2622,17 +2622,17 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Costos altos, Dificultad para encontrar parqueadero</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="F76">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Costos altos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F77">
@@ -2682,17 +2682,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Costos altos, Multitud de personas</t>
+          <t>Costos altos, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F78">
@@ -2712,12 +2712,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Costos altos, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2742,17 +2742,17 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de espera largos o inciertos</t>
+          <t>Costos altos, Multitud de personas</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F80">
@@ -2772,12 +2772,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
+          <t>Costos altos, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2802,17 +2802,17 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero</t>
+          <t>Costos altos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F82">
@@ -2832,17 +2832,17 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
+          <t>Costos altos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F83">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
+          <t>Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -2892,17 +2892,17 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador</t>
+          <t>Dificultad para encontrar parqueadero, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F85">
@@ -2922,17 +2922,17 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
+          <t>Dificultad para encontrar parqueadero, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F86">
@@ -2952,7 +2952,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Esfuerzo físico agotador, Multitud de personas</t>
+          <t>Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2962,7 +2962,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F87">
@@ -2982,17 +2982,17 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Esfuerzo físico agotador, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>18 (9.6%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>18 (8.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F88">
@@ -3012,17 +3012,17 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
+          <t>Esfuerzo físico agotador, Multitud de personas</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F89">
@@ -3042,17 +3042,17 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>18 (9.6%)</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F90">
@@ -3072,17 +3072,17 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Congestión de tráfico</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F91">
@@ -3102,17 +3102,17 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Costos altos</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F92">
@@ -3132,17 +3132,17 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F93">
@@ -3162,17 +3162,17 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Multitud de personas</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F94">
@@ -3192,17 +3192,17 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F95">
@@ -3222,12 +3222,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3252,17 +3252,17 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Multitud de personas</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>13 (6.9%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>17 (8.1%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F97">
@@ -3282,17 +3282,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Multitud de personas, Congestión de tráfico</t>
+          <t>Exposición a condiciones climáticas desfavorables (lluvia o calor), Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>3 (1.4%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F98">
@@ -3312,17 +3312,17 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Multitud de personas, Costos altos</t>
+          <t>Multitud de personas</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (6.9%)</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>17 (8.1%)</t>
         </is>
       </c>
       <c r="F99">
@@ -3342,17 +3342,17 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Multitud de personas, Esfuerzo físico agotador</t>
+          <t>Multitud de personas, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F100">
@@ -3372,17 +3372,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de robo o atraco</t>
+          <t>Multitud de personas, Costos altos</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F101">
@@ -3402,17 +3402,17 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Multitud de personas, Esfuerzo físico agotador</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F102">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3442,7 +3442,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F103">
@@ -3462,12 +3462,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
+          <t>Multitud de personas, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -3492,17 +3492,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Otro, Ninguno</t>
+          <t>Multitud de personas, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>6 (2.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F105">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Otro, No sabe</t>
+          <t>Multitud de personas, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -3552,17 +3552,17 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Otro, Por comodidad</t>
+          <t>Otro, Ninguno</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>6 (2.9%)</t>
         </is>
       </c>
       <c r="F107">
@@ -3582,17 +3582,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
+          <t>Otro, No sabe</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F108">
@@ -3612,17 +3612,17 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Otro, Todas</t>
+          <t>Otro, Por comodidad</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F109">
@@ -3642,17 +3642,17 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco</t>
+          <t>Otro, Sólo que me lleva fácilmente a mi lugar de trabajo</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>6 (2.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F110">
@@ -3672,17 +3672,17 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
+          <t>Otro, Todas</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F111">
@@ -3702,17 +3702,17 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>6 (2.9%)</t>
         </is>
       </c>
       <c r="F112">
@@ -3732,7 +3732,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
+          <t>Ser víctima de robo o atraco, Dificultad para encontrar parqueadero</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3742,7 +3742,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F113">
@@ -3762,17 +3762,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F114">
@@ -3792,17 +3792,17 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia</t>
+          <t>Ser víctima de robo o atraco, Otro, La comodidad</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F115">
@@ -3822,7 +3822,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
+          <t>Ser víctima de robo o atraco, Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F116">
@@ -3852,17 +3852,17 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F117">
@@ -3882,17 +3882,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Otro, Al  coger taxi no puedo indicarle por donde voy en cambio al transporte  de plataforma la aplicación  les indica  por dónde  ir y comparto la aplicación  con mi esposo  y sabe por dónde  voy</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F118">
@@ -3912,12 +3912,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -3942,7 +3942,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
+          <t>Ser víctima de situaciones de acoso o violencia, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3972,17 +3972,17 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos</t>
+          <t>Ser víctima de situaciones de discriminación</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>11 (5.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F121">
@@ -4002,17 +4002,17 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
+          <t>Ser víctima de situaciones de discriminación, Ser víctima de robo o atraco</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F122">
@@ -4032,17 +4032,17 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Costos altos</t>
+          <t>Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (5.9%)</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F123">
@@ -4062,17 +4062,17 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de espera largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F124">
@@ -4092,17 +4092,17 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de espera largos o inciertos, Costos altos</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F125">
@@ -4122,17 +4122,17 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F126">
@@ -4152,17 +4152,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos</t>
+          <t>Tiempos de espera largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>11 (5.2%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F127">
@@ -4182,12 +4182,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
+          <t>Tiempos de espera largos o inciertos, Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -4212,17 +4212,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
+          <t>Tiempos de viaje largos o inciertos</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="F129">
@@ -4242,12 +4242,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
+          <t>Tiempos de viaje largos o inciertos, Congestión de tráfico</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -4272,7 +4272,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
+          <t>Tiempos de viaje largos o inciertos, Exposición a condiciones climáticas desfavorables (lluvia o calor)</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -4282,7 +4282,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>1 (0.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="F131">
@@ -4292,61 +4292,61 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Tiempos de viaje largos o inciertos, Multitud de personas</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>50 (32.9%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>89 (48.1%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F132">
-        <v>0.0001</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>p29_modo_ideal_agregado</t>
+          <t>p27_situaciones_multiples</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Modo ideal o soñado de movilizarse (agregado)</t>
+          <t>Situaciones múltiples que se buscó evitar</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Bicicleta</t>
+          <t>Tiempos de viaje largos o inciertos, Tiempos de espera largos o inciertos</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>9 (5.9%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>1 (0.5%)</t>
         </is>
       </c>
       <c r="F133">
-        <v>0.0001</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="134">
@@ -4362,21 +4362,21 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Caminar</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>51 (27.1%)</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>6 (3.2%)</t>
+          <t>91 (43.3%)</t>
         </is>
       </c>
       <c r="F134">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -4392,21 +4392,21 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Bicicleta</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>65 (42.8%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>41 (22.2%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F135">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -4422,21 +4422,21 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Otro</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>2 (1.3%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>6 (2.9%)</t>
         </is>
       </c>
       <c r="F136">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -4452,21 +4452,21 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Taxi</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>7 (4.6%)</t>
+          <t>65 (34.6%)</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>24 (13.0%)</t>
+          <t>41 (19.5%)</t>
         </is>
       </c>
       <c r="F137">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -4482,81 +4482,81 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>17 (11.2%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>20 (10.8%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="F138">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>24 (11.4%)</t>
         </is>
       </c>
       <c r="F139">
-        <v>0.0997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Falta de infraestructura / distancia</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>2 (1.1%)</t>
+          <t>51 (27.1%)</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>43 (20.5%)</t>
         </is>
       </c>
       <c r="F140">
-        <v>0.0997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -4572,12 +4572,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -4602,17 +4602,17 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>45 (23.9%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>70 (33.3%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F142">
@@ -4632,17 +4632,17 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Modo actual</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>84 (44.7%)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>72 (34.3%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F143">
@@ -4662,17 +4662,17 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>34 (18.1%)</t>
+          <t>45 (23.9%)</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>47 (22.4%)</t>
+          <t>70 (33.3%)</t>
         </is>
       </c>
       <c r="F144">
@@ -4692,17 +4692,17 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>13 (6.9%)</t>
+          <t>84 (44.7%)</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>72 (34.3%)</t>
         </is>
       </c>
       <c r="F145">
@@ -4712,61 +4712,61 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Industria/Obras</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>35 (18.6%)</t>
+          <t>34 (18.1%)</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>62 (29.5%)</t>
+          <t>47 (22.4%)</t>
         </is>
       </c>
       <c r="F146">
-        <v>0.0067</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>5 (2.7%)</t>
+          <t>13 (6.9%)</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>4 (1.9%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F147">
-        <v>0.0067</v>
+        <v>0.0997</v>
       </c>
     </row>
     <row r="148">
@@ -4782,17 +4782,17 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Productos químicos</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>9 (4.8%)</t>
+          <t>35 (18.6%)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>18 (8.6%)</t>
+          <t>62 (29.5%)</t>
         </is>
       </c>
       <c r="F148">
@@ -4812,17 +4812,17 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Quema de residuos</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>7 (3.7%)</t>
+          <t>5 (2.7%)</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>9 (4.3%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="F149">
@@ -4842,17 +4842,17 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>110 (58.5%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>83 (39.5%)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F150">
@@ -4872,17 +4872,17 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Vertederos (basureros) y rellenos sanitarios</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>22 (11.7%)</t>
+          <t>7 (3.7%)</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>34 (16.2%)</t>
+          <t>9 (4.3%)</t>
         </is>
       </c>
       <c r="F151">
@@ -4892,61 +4892,61 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>35 (18.7%)</t>
+          <t>110 (58.5%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>47 (22.4%)</t>
+          <t>83 (39.5%)</t>
         </is>
       </c>
       <c r="F152">
-        <v>0.1988</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>41 (21.9%)</t>
+          <t>22 (11.7%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>48 (22.9%)</t>
+          <t>34 (16.2%)</t>
         </is>
       </c>
       <c r="F153">
-        <v>0.1988</v>
+        <v>0.0067</v>
       </c>
     </row>
     <row r="154">
@@ -4962,21 +4962,21 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>10 (5.3%)</t>
+          <t>37 (19.7%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>14 (6.7%)</t>
+          <t>52 (24.8%)</t>
         </is>
       </c>
       <c r="F154">
-        <v>0.1988</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="155">
@@ -4992,21 +4992,21 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>4 (2.1%)</t>
+          <t>39 (20.7%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>12 (5.7%)</t>
+          <t>43 (20.5%)</t>
         </is>
       </c>
       <c r="F155">
-        <v>0.1988</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="156">
@@ -5022,81 +5022,81 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>97 (51.9%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>89 (42.4%)</t>
+          <t>14 (6.7%)</t>
         </is>
       </c>
       <c r="F156">
-        <v>0.1988</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>15 (8.0%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>18 (8.6%)</t>
+          <t>12 (5.7%)</t>
         </is>
       </c>
       <c r="F157">
-        <v>0.0299</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>27 (14.4%)</t>
+          <t>98 (52.1%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>18 (8.6%)</t>
+          <t>89 (42.4%)</t>
         </is>
       </c>
       <c r="F158">
-        <v>0.0299</v>
+        <v>0.1569</v>
       </c>
     </row>
     <row r="159">
@@ -5112,17 +5112,17 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>20 (10.6%)</t>
+          <t>15 (8.0%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>31 (14.8%)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F159">
@@ -5142,17 +5142,17 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>57 (30.3%)</t>
+          <t>27 (14.4%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>41 (19.5%)</t>
+          <t>18 (8.6%)</t>
         </is>
       </c>
       <c r="F160">
@@ -5172,17 +5172,17 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>61 (32.4%)</t>
+          <t>20 (10.6%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>92 (43.8%)</t>
+          <t>31 (14.8%)</t>
         </is>
       </c>
       <c r="F161">
@@ -5202,17 +5202,17 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>8 (4.3%)</t>
+          <t>57 (30.3%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>10 (4.8%)</t>
+          <t>41 (19.5%)</t>
         </is>
       </c>
       <c r="F162">
@@ -5222,301 +5222,361 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>61 (32.4%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>92 (43.8%)</t>
         </is>
       </c>
       <c r="F163">
-        <v>0.2973</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>8 (4.3%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>10 (4.8%)</t>
         </is>
       </c>
       <c r="F164">
-        <v>0.8855</v>
+        <v>0.0299</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Importancia del costo de compra</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
           <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>5.0 (4.0–5.0)</t>
-        </is>
-      </c>
       <c r="F165">
-        <v>0.4018</v>
+        <v>0.2973</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F166">
-        <v>0.3085</v>
+        <v>0.8855</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p28_importancia_comodidad</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Importancia de la comodidad</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F167">
-        <v>0.2498</v>
+        <v>0.4018</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p28_importancia_tiempo</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Importancia del tiempo de viaje</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="F168">
-        <v>0.0005999999999999999</v>
+        <v>0.3085</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p28_importancia_riesgo_robo</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Importancia del riesgo de robo o atraco</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>3.0 (1.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F169">
-        <v>0.0013</v>
+        <v>0.2498</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p28_importancia_riesgo_acoso</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Importancia del riesgo de acoso</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>4.0 (2.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F170">
-        <v>0.2845</v>
+        <v>0.0005999999999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p28_importancia_discriminacion</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Importancia del riesgo de discriminación</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="F171">
-        <v>0.7138</v>
+        <v>0.0013</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_emisiones</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
+          <t>Importancia del nivel de emisiones</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–3.0)</t>
+          <t>4.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>3.0 (2.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F172">
-        <v>0.0027</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_siniestralidad</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia de la siniestralidad vial</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F173">
-        <v>0.3467</v>
+        <v>0.7138</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–3.0)</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F174">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>0.2143</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B174" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>3.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>4.0 (3.0–4.0)</t>
-        </is>
-      </c>
-      <c r="F174">
-        <v>0.0246</v>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F176">
+        <v>0.4697</v>
       </c>
     </row>
   </sheetData>
